--- a/biology/Botanique/Achillea_chamaemelifolia/Achillea_chamaemelifolia.xlsx
+++ b/biology/Botanique/Achillea_chamaemelifolia/Achillea_chamaemelifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achillée à feuilles de Camomille
 L'Achillée à feuilles de Camomille (Achillea chamaemelifolia) est une espèce de plante herbacée vivace de la famille des Astéracées.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa souche est rameuse, haute de 20 à 40 cm dressées, aux feuilles pétiolées aux contours lancéolées.
-Sa floraison a lieu de juin à juillet[1].
+Sa floraison a lieu de juin à juillet.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Achillea chamaemelifolia est endémique de la partie orientale des Pyrénées : Espagne et France (uniquement dans les départements de l'Ariège et des Pyrénées-Orientales).
-Elle pousse dans les fissures de rochers siliceux, aux étages collinéen à subalpin[1].
+Elle pousse dans les fissures de rochers siliceux, aux étages collinéen à subalpin.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est menacée.[réf. nécessaire]
 </t>
